--- a/Thread Reddit Data.xlsx
+++ b/Thread Reddit Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2399a590dab840c7/Desktop/Repositories/reddit-data-collector/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_7E6D36845BA0510767B92A11595ED87656CDAC97" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E347825-E08E-4E35-807B-8D56A447CACE}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_7E6D36845BA0510767B92A11595ED87656CDAC97" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6522485-01E4-43AA-8136-DDBD14302EB3}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1464" yWindow="1464" windowWidth="15552" windowHeight="8904" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -708,6 +708,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -997,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C26" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/Thread Reddit Data.xlsx
+++ b/Thread Reddit Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2399a590dab840c7/Desktop/Repositories/reddit-data-collector/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_7E6D36845BA0510767B92A11595ED87656CDAC97" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6522485-01E4-43AA-8136-DDBD14302EB3}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_7E6D36845BA0510767B92A11595ED87656CDAC97" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{103E70BA-AAF2-4046-8B41-4424862246FE}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="1464" yWindow="1464" windowWidth="15552" windowHeight="8904" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$52</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -999,19 +1012,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="19.05078125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="147.26171875" customWidth="1"/>
     <col min="3" max="3" width="255.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1037,7 +1050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1065,8 +1078,12 @@
       <c r="I2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J2">
+        <f>SUM(E2:E4)</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1094,8 +1111,12 @@
       <c r="I3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J3">
+        <f>SUM(E2:E52)</f>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1124,7 +1145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>12</v>
       </c>
@@ -1152,8 +1173,12 @@
       <c r="I5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J5">
+        <f>J2/J3</f>
+        <v>0.41176470588235292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1182,7 +1207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1211,7 +1236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>11</v>
       </c>
@@ -1240,7 +1265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1269,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1298,7 +1323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>4</v>
       </c>
@@ -1327,7 +1352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>19</v>
       </c>
@@ -1353,7 +1378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>21</v>
       </c>
@@ -1382,7 +1407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>22</v>
       </c>
@@ -1411,7 +1436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>23</v>
       </c>
@@ -1440,7 +1465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>8</v>
       </c>
